--- a/Running projects/J. Zeta Mall Islamabad/2433_HVAC_Tender Documents_Ver-1.0_171024.xlsx
+++ b/Running projects/J. Zeta Mall Islamabad/2433_HVAC_Tender Documents_Ver-1.0_171024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xls\Sent BOQ\J. Zeta Mall Islamabad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\J. Zeta Mall Islamabad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E00979-C66C-4B00-A7C7-15E7C7FDC38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EBD2A6-E038-40D7-822C-4607D4234094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1602,6 +1602,9 @@
     <xf numFmtId="165" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1610,9 +1613,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1921,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1938,18 +1938,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
@@ -2091,12 +2091,10 @@
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="17">
-        <v>959000</v>
-      </c>
+      <c r="F7" s="17"/>
       <c r="G7" s="5">
         <f>F7*D7</f>
-        <v>959000</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <v>7000</v>
@@ -2107,7 +2105,7 @@
       </c>
       <c r="J7" s="5">
         <f>I7+G7</f>
-        <v>966000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2124,12 +2122,10 @@
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="17">
-        <v>959000</v>
-      </c>
+      <c r="F8" s="17"/>
       <c r="G8" s="5">
         <f t="shared" ref="G8:G17" si="0">F8*D8</f>
-        <v>959000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <v>7000</v>
@@ -2140,7 +2136,7 @@
       </c>
       <c r="J8" s="5">
         <f t="shared" ref="J8:J17" si="2">I8+G8</f>
-        <v>966000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2157,12 +2153,10 @@
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="17">
-        <v>959000</v>
-      </c>
+      <c r="F9" s="17"/>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>959000</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5">
         <v>7000</v>
@@ -2173,7 +2167,7 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" si="2"/>
-        <v>966000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2190,12 +2184,10 @@
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="17">
-        <v>959000</v>
-      </c>
+      <c r="F10" s="17"/>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>959000</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <v>7000</v>
@@ -2206,7 +2198,7 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" si="2"/>
-        <v>966000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2223,12 +2215,10 @@
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="17">
-        <v>959000</v>
-      </c>
+      <c r="F11" s="17"/>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>959000</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5">
         <v>7000</v>
@@ -2239,7 +2229,7 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" si="2"/>
-        <v>966000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2256,12 +2246,10 @@
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="17">
-        <v>959000</v>
-      </c>
+      <c r="F12" s="17"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>959000</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
         <v>7000</v>
@@ -2272,7 +2260,7 @@
       </c>
       <c r="J12" s="5">
         <f t="shared" si="2"/>
-        <v>966000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2289,12 +2277,10 @@
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="17">
-        <v>959000</v>
-      </c>
+      <c r="F13" s="17"/>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>959000</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
         <v>7000</v>
@@ -2305,7 +2291,7 @@
       </c>
       <c r="J13" s="5">
         <f t="shared" si="2"/>
-        <v>966000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2322,12 +2308,10 @@
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="17">
-        <v>959000</v>
-      </c>
+      <c r="F14" s="17"/>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>959000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
         <v>7000</v>
@@ -2338,7 +2322,7 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" si="2"/>
-        <v>966000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2355,12 +2339,10 @@
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="17">
-        <v>959000</v>
-      </c>
+      <c r="F15" s="17"/>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>959000</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5">
         <v>7000</v>
@@ -2371,7 +2353,7 @@
       </c>
       <c r="J15" s="5">
         <f t="shared" si="2"/>
-        <v>966000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2388,12 +2370,10 @@
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="17">
-        <v>959000</v>
-      </c>
+      <c r="F16" s="17"/>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>959000</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
         <v>7000</v>
@@ -2404,7 +2384,7 @@
       </c>
       <c r="J16" s="5">
         <f t="shared" si="2"/>
-        <v>966000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2421,12 +2401,10 @@
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="17">
-        <v>612000</v>
-      </c>
+      <c r="F17" s="17"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>612000</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5">
         <v>7000</v>
@@ -2437,7 +2415,7 @@
       </c>
       <c r="J17" s="5">
         <f t="shared" si="2"/>
-        <v>619000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="6" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -2552,7 +2530,7 @@
       <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="19">
         <v>680</v>
       </c>
       <c r="G22" s="5">
@@ -2666,7 +2644,7 @@
       <c r="E26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="19">
         <v>24900</v>
       </c>
       <c r="G26" s="5">
@@ -2755,7 +2733,7 @@
       <c r="E29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="19">
         <v>165000</v>
       </c>
       <c r="G29" s="5">
@@ -3038,7 +3016,7 @@
       <c r="E38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="19">
         <v>55000</v>
       </c>
       <c r="G38" s="5">
@@ -4694,7 +4672,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="18">
         <f>SUM(J7:J95)</f>
-        <v>27604626</v>
+        <v>17402626</v>
       </c>
     </row>
   </sheetData>
